--- a/2-考勤结果/考勤总表.xlsx
+++ b/2-考勤结果/考勤总表.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24860" windowHeight="11420" tabRatio="400" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="语文" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="政治" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="语文" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="政治" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1" concurrentCalc="0"/>
@@ -1047,7 +1047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE107"/>
+  <dimension ref="A1:AF107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1074,122 +1074,127 @@
           <t>名单</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>20230208周三-早读</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>20220628周二-早读</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t>20220627周一-早读</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="F1" s="0" t="inlineStr">
         <is>
           <t>20220622周三-早读</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="G1" s="0" t="inlineStr">
         <is>
           <t>20220621周二-晚自习</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="H1" s="0" t="inlineStr">
         <is>
           <t>20220621周二-第6节课</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="I1" s="0" t="inlineStr">
         <is>
           <t>20220621周二-第3节课</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="J1" s="0" t="inlineStr">
         <is>
           <t>20220616周四-早读</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="K1" s="0" t="inlineStr">
         <is>
           <t>20220616周四-早读</t>
         </is>
       </c>
-      <c r="K1" s="0" t="inlineStr">
+      <c r="L1" s="0" t="inlineStr">
         <is>
           <t>20220616周四-早读</t>
         </is>
       </c>
-      <c r="L1" s="0" t="inlineStr">
+      <c r="M1" s="0" t="inlineStr">
         <is>
           <t>20220615周三-早读</t>
         </is>
       </c>
-      <c r="M1" s="0" t="inlineStr">
+      <c r="N1" s="0" t="inlineStr">
         <is>
           <t>20220615周三-早读</t>
         </is>
       </c>
-      <c r="N1" s="0" t="inlineStr">
+      <c r="O1" s="0" t="inlineStr">
         <is>
           <t>20220615周三-早读</t>
         </is>
       </c>
-      <c r="O1" s="0" t="inlineStr">
+      <c r="P1" s="0" t="inlineStr">
         <is>
           <t>20220615周三-早读</t>
         </is>
       </c>
-      <c r="P1" s="0" t="inlineStr">
+      <c r="Q1" s="0" t="inlineStr">
         <is>
           <t>20220615周三-早读</t>
         </is>
       </c>
-      <c r="Q1" s="0" t="inlineStr">
+      <c r="R1" s="0" t="inlineStr">
         <is>
           <t>20220615周三-早读</t>
         </is>
       </c>
-      <c r="R1" s="0" t="inlineStr">
+      <c r="S1" s="0" t="inlineStr">
         <is>
           <t>20220615周三-早读</t>
         </is>
       </c>
-      <c r="S1" s="0" t="inlineStr">
+      <c r="T1" s="0" t="inlineStr">
         <is>
           <t>20220613周一-第4节课</t>
         </is>
       </c>
-      <c r="T1" s="0" t="inlineStr">
+      <c r="U1" s="0" t="inlineStr">
         <is>
           <t>20220613周一-课间操</t>
         </is>
       </c>
-      <c r="U1" s="0" t="inlineStr">
+      <c r="V1" s="0" t="inlineStr">
         <is>
           <t>20220611周六-早读</t>
         </is>
       </c>
-      <c r="V1" s="0" t="inlineStr">
+      <c r="W1" s="0" t="inlineStr">
         <is>
           <t>20220611周六-早读</t>
         </is>
       </c>
-      <c r="W1" s="0" t="inlineStr">
+      <c r="X1" s="0" t="inlineStr">
         <is>
           <t>20220611周六-早读</t>
         </is>
       </c>
-      <c r="X1" s="0" t="inlineStr">
+      <c r="Y1" s="0" t="inlineStr">
         <is>
           <t>20220611周六-早读</t>
         </is>
       </c>
-      <c r="Y1" s="0" t="inlineStr">
+      <c r="Z1" s="0" t="inlineStr">
         <is>
           <t>20220611周六-课间操</t>
         </is>
       </c>
-      <c r="Z1" s="0" t="inlineStr">
+      <c r="AA1" s="0" t="inlineStr">
         <is>
           <t>20220611周六-第1节课</t>
         </is>
@@ -1206,22 +1211,22 @@
           <t>崔昊元</t>
         </is>
       </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>旷课</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="H2" s="0" t="inlineStr">
+      <c r="F2" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1231,18 +1236,23 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="V2" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="X2" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="AC2" s="5" t="n"/>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="W2" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="Y2" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
       <c r="AD2" s="5" t="n"/>
+      <c r="AE2" s="5" t="n"/>
     </row>
     <row r="3" ht="18" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">
@@ -1255,7 +1265,7 @@
           <t>贾靖程</t>
         </is>
       </c>
-      <c r="C3" s="0" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1270,7 +1280,7 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H3" s="0" t="inlineStr">
+      <c r="F3" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1280,18 +1290,23 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="V3" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="X3" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="AA3" s="5" t="n"/>
-      <c r="AC3" s="5" t="n"/>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="W3" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="Y3" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AB3" s="5" t="n"/>
+      <c r="AD3" s="5" t="n"/>
     </row>
     <row r="4" ht="18" customHeight="1" s="2">
       <c r="A4" s="3" t="inlineStr">
@@ -1304,7 +1319,7 @@
           <t>吴俊岳</t>
         </is>
       </c>
-      <c r="C4" s="0" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1319,7 +1334,7 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H4" s="0" t="inlineStr">
+      <c r="F4" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1329,18 +1344,23 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="V4" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="X4" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="AA4" s="5" t="n"/>
-      <c r="AC4" s="5" t="n"/>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="W4" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="Y4" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AB4" s="5" t="n"/>
+      <c r="AD4" s="5" t="n"/>
     </row>
     <row r="5" ht="18" customHeight="1" s="2">
       <c r="A5" s="3" t="inlineStr">
@@ -1353,7 +1373,7 @@
           <t>王浩羽</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1368,7 +1388,7 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H5" s="0" t="inlineStr">
+      <c r="F5" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1378,12 +1398,17 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="V5" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="W5" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>迟到</t>
         </is>
@@ -1400,7 +1425,7 @@
           <t>吕梦丽</t>
         </is>
       </c>
-      <c r="C6" s="0" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1415,7 +1440,7 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H6" s="0" t="inlineStr">
+      <c r="F6" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1425,17 +1450,22 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="W6" s="4" t="inlineStr">
         <is>
           <t>早退</t>
         </is>
       </c>
-      <c r="X6" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="AD6" s="5" t="n"/>
+      <c r="Y6" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="n"/>
     </row>
     <row r="7" ht="18" customHeight="1" s="2">
       <c r="A7" s="3" t="inlineStr">
@@ -1448,7 +1478,7 @@
           <t>牛皓冬</t>
         </is>
       </c>
-      <c r="C7" s="0" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1463,7 +1493,7 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H7" s="0" t="inlineStr">
+      <c r="F7" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1473,17 +1503,22 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="V7" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="X7" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="AD7" s="5" t="n"/>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="Y7" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AE7" s="5" t="n"/>
     </row>
     <row r="8" ht="18" customHeight="1" s="2">
       <c r="A8" s="3" t="inlineStr">
@@ -1496,22 +1531,22 @@
           <t>张阔</t>
         </is>
       </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>请假</t>
         </is>
       </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
+      <c r="F8" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1521,18 +1556,23 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="V8" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="X8" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="AA8" s="5" t="n"/>
-      <c r="AD8" s="5" t="n"/>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="W8" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="Y8" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AB8" s="5" t="n"/>
+      <c r="AE8" s="5" t="n"/>
     </row>
     <row r="9" ht="18" customHeight="1" s="2">
       <c r="A9" s="3" t="inlineStr">
@@ -1545,7 +1585,7 @@
           <t>孙佳奇</t>
         </is>
       </c>
-      <c r="C9" s="0" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1560,7 +1600,7 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H9" s="0" t="inlineStr">
+      <c r="F9" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1570,17 +1610,22 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="V9" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="X9" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="AA9" s="5" t="n"/>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="W9" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="Y9" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AB9" s="5" t="n"/>
     </row>
     <row r="10" ht="18" customHeight="1" s="2">
       <c r="A10" s="3" t="inlineStr">
@@ -1593,7 +1638,7 @@
           <t>郑佳睦</t>
         </is>
       </c>
-      <c r="C10" s="0" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1608,7 +1653,7 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
+      <c r="F10" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1618,17 +1663,22 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="V10" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="X10" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="AC10" s="5" t="n"/>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="W10" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="Y10" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AD10" s="5" t="n"/>
     </row>
     <row r="11" ht="18" customHeight="1" s="2">
       <c r="A11" s="3" t="inlineStr">
@@ -1641,7 +1691,7 @@
           <t>王孝天</t>
         </is>
       </c>
-      <c r="C11" s="0" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1656,7 +1706,7 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H11" s="0" t="inlineStr">
+      <c r="F11" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1666,17 +1716,22 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="V11" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="X11" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="AC11" s="5" t="n"/>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="W11" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="Y11" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AD11" s="5" t="n"/>
     </row>
     <row r="12" ht="18" customHeight="1" s="2">
       <c r="A12" s="3" t="inlineStr">
@@ -1689,7 +1744,7 @@
           <t>付一鸣</t>
         </is>
       </c>
-      <c r="C12" s="0" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1704,7 +1759,7 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
+      <c r="F12" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1714,17 +1769,22 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="V12" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="X12" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="AC12" s="5" t="n"/>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="W12" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="Y12" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AD12" s="5" t="n"/>
     </row>
     <row r="13" ht="18" customHeight="1" s="2">
       <c r="A13" s="3" t="inlineStr">
@@ -1737,7 +1797,7 @@
           <t>李蓉轩</t>
         </is>
       </c>
-      <c r="C13" s="0" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1752,7 +1812,7 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H13" s="0" t="inlineStr">
+      <c r="F13" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1762,17 +1822,22 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="V13" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="X13" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="AC13" s="5" t="n"/>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="W13" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="Y13" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AD13" s="5" t="n"/>
     </row>
     <row r="14" ht="18" customHeight="1" s="2">
       <c r="A14" s="3" t="inlineStr">
@@ -1785,7 +1850,7 @@
           <t>陈观绅</t>
         </is>
       </c>
-      <c r="C14" s="0" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1800,7 +1865,7 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
+      <c r="F14" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1810,17 +1875,22 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="V14" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="X14" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="AC14" s="5" t="n"/>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="W14" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="Y14" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AD14" s="5" t="n"/>
     </row>
     <row r="15" ht="18" customHeight="1" s="2">
       <c r="A15" s="3" t="inlineStr">
@@ -1833,7 +1903,7 @@
           <t>赵鑫博</t>
         </is>
       </c>
-      <c r="C15" s="0" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1848,7 +1918,7 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H15" s="0" t="inlineStr">
+      <c r="F15" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1858,17 +1928,22 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="V15" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="X15" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="AC15" s="5" t="n"/>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="W15" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="Y15" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AD15" s="5" t="n"/>
     </row>
     <row r="16" ht="18" customHeight="1" s="2">
       <c r="A16" s="3" t="inlineStr">
@@ -1881,7 +1956,7 @@
           <t>张子豪</t>
         </is>
       </c>
-      <c r="C16" s="0" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1896,7 +1971,7 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
+      <c r="F16" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1906,17 +1981,22 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="V16" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="X16" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="AC16" s="5" t="n"/>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="W16" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="Y16" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AD16" s="5" t="n"/>
     </row>
     <row r="17" ht="18" customHeight="1" s="2">
       <c r="A17" s="3" t="inlineStr">
@@ -1929,7 +2009,7 @@
           <t>叶平</t>
         </is>
       </c>
-      <c r="C17" s="0" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1944,7 +2024,7 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="H17" s="0" t="inlineStr">
+      <c r="F17" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -1954,18 +2034,23 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="V17" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="X17" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="AC17" s="5" t="n"/>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="W17" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="Y17" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
       <c r="AD17" s="5" t="n"/>
+      <c r="AE17" s="5" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1" s="2">
       <c r="A18" s="3" t="inlineStr">
@@ -1978,32 +2063,32 @@
           <t>侯文杰</t>
         </is>
       </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="F18" s="6" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="G18" s="6" t="inlineStr">
         <is>
           <t>做核酸</t>
         </is>
       </c>
-      <c r="G18" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="I18" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="R18" s="0" t="inlineStr">
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2013,33 +2098,38 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="T18" s="4" t="inlineStr">
+      <c r="T18" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="U18" s="4" t="inlineStr">
         <is>
           <t>备赛</t>
         </is>
       </c>
-      <c r="U18" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="W18" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="Y18" s="4" t="inlineStr">
+      <c r="V18" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="X18" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="Z18" s="4" t="inlineStr">
         <is>
           <t>迟到</t>
         </is>
       </c>
-      <c r="Z18" s="4" t="inlineStr">
+      <c r="AA18" s="4" t="inlineStr">
         <is>
           <t>其他情况</t>
         </is>
       </c>
-      <c r="AB18" s="5" t="n"/>
-      <c r="AE18" s="5" t="n"/>
+      <c r="AC18" s="5" t="n"/>
+      <c r="AF18" s="5" t="n"/>
     </row>
     <row r="19" ht="18" customHeight="1" s="2">
       <c r="A19" s="3" t="inlineStr">
@@ -2052,32 +2142,32 @@
           <t>黄新之</t>
         </is>
       </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="F19" s="6" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
         <is>
           <t>其他情况</t>
         </is>
       </c>
-      <c r="G19" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="I19" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="R19" s="0" t="inlineStr">
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2097,12 +2187,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="W19" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="Y19" s="0" t="inlineStr">
+      <c r="V19" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="X19" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2112,7 +2202,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="AE19" s="5" t="n"/>
+      <c r="AA19" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AF19" s="5" t="n"/>
     </row>
     <row r="20" ht="18" customHeight="1" s="2">
       <c r="A20" s="3" t="inlineStr">
@@ -2125,12 +2220,12 @@
           <t>杨智恒</t>
         </is>
       </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="E20" s="0" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2145,12 +2240,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="I20" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="R20" s="0" t="inlineStr">
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2170,12 +2265,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="W20" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="Y20" s="0" t="inlineStr">
+      <c r="V20" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="X20" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2185,7 +2280,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="AE20" s="5" t="n"/>
+      <c r="AA20" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AF20" s="5" t="n"/>
     </row>
     <row r="21" ht="18" customHeight="1" s="2">
       <c r="A21" s="3" t="inlineStr">
@@ -2198,12 +2298,12 @@
           <t>杨悦昕</t>
         </is>
       </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="E21" s="0" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2218,12 +2318,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="I21" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="R21" s="0" t="inlineStr">
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2243,17 +2343,22 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="W21" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="Y21" s="0" t="inlineStr">
+      <c r="V21" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="X21" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
       </c>
       <c r="Z21" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AA21" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2270,12 +2375,12 @@
           <t>刘洋</t>
         </is>
       </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="E22" s="0" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2290,12 +2395,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="I22" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="R22" s="0" t="inlineStr">
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2315,12 +2420,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="W22" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="Y22" s="0" t="inlineStr">
+      <c r="V22" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="X22" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2330,7 +2435,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="AB22" s="5" t="n"/>
+      <c r="AA22" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AC22" s="5" t="n"/>
     </row>
     <row r="23" ht="18" customHeight="1" s="2">
       <c r="A23" s="3" t="inlineStr">
@@ -2343,12 +2453,12 @@
           <t>靳馨娴</t>
         </is>
       </c>
-      <c r="C23" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="E23" s="0" t="inlineStr">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2358,17 +2468,17 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="G23" s="6" t="inlineStr">
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="H23" s="6" t="inlineStr">
         <is>
           <t>备赛</t>
         </is>
       </c>
-      <c r="I23" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="R23" s="0" t="inlineStr">
+      <c r="J23" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2388,12 +2498,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="W23" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="Y23" s="0" t="inlineStr">
+      <c r="V23" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="X23" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2403,7 +2513,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="AB23" s="5" t="n"/>
+      <c r="AA23" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AC23" s="5" t="n"/>
     </row>
     <row r="24" ht="18" customHeight="1" s="2">
       <c r="A24" s="3" t="inlineStr">
@@ -2416,12 +2531,12 @@
           <t>白轶臣</t>
         </is>
       </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="E24" s="0" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2436,12 +2551,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="I24" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="R24" s="0" t="inlineStr">
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2461,12 +2576,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="W24" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="Y24" s="0" t="inlineStr">
+      <c r="V24" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="X24" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2476,7 +2591,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="AB24" s="5" t="n"/>
+      <c r="AA24" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AC24" s="5" t="n"/>
     </row>
     <row r="25" ht="18" customHeight="1" s="2">
       <c r="A25" s="3" t="inlineStr">
@@ -2489,12 +2609,12 @@
           <t>蒋文拓</t>
         </is>
       </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="E25" s="0" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2509,12 +2629,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="I25" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="R25" s="0" t="inlineStr">
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2534,17 +2654,22 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="W25" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="Y25" s="0" t="inlineStr">
+      <c r="V25" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="X25" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
       </c>
       <c r="Z25" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AA25" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2561,12 +2686,12 @@
           <t>赵梓豪</t>
         </is>
       </c>
-      <c r="C26" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="E26" s="0" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2581,12 +2706,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="I26" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="R26" s="0" t="inlineStr">
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J26" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2606,12 +2731,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="W26" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="Y26" s="0" t="inlineStr">
+      <c r="V26" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="X26" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2621,7 +2746,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="AE26" s="5" t="n"/>
+      <c r="AA26" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AF26" s="5" t="n"/>
     </row>
     <row r="27" ht="18" customHeight="1" s="2">
       <c r="A27" s="3" t="inlineStr">
@@ -2634,12 +2764,12 @@
           <t>杨梓琦</t>
         </is>
       </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="E27" s="0" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2654,12 +2784,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="I27" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="R27" s="0" t="inlineStr">
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2679,12 +2809,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="W27" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="Y27" s="0" t="inlineStr">
+      <c r="V27" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="X27" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2694,7 +2824,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="AE27" s="5" t="n"/>
+      <c r="AA27" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AF27" s="5" t="n"/>
     </row>
     <row r="28" ht="18" customHeight="1" s="2">
       <c r="A28" s="3" t="inlineStr">
@@ -2707,12 +2842,12 @@
           <t>吕铭</t>
         </is>
       </c>
-      <c r="C28" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="E28" s="0" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2727,12 +2862,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="I28" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="R28" s="0" t="inlineStr">
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2752,12 +2887,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="W28" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="Y28" s="0" t="inlineStr">
+      <c r="V28" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="X28" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2767,7 +2902,12 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="AE28" s="5" t="n"/>
+      <c r="AA28" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AF28" s="5" t="n"/>
     </row>
     <row r="29" ht="18" customHeight="1" s="2">
       <c r="A29" s="3" t="inlineStr">
@@ -2780,12 +2920,12 @@
           <t>刘子豪</t>
         </is>
       </c>
-      <c r="C29" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="E29" s="0" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -2800,47 +2940,52 @@
           <t>考勤正常</t>
         </is>
       </c>
-      <c r="I29" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="R29" s="4" t="inlineStr">
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="S29" s="4" t="inlineStr">
         <is>
           <t>迟到</t>
         </is>
       </c>
-      <c r="S29" s="4" t="inlineStr">
+      <c r="T29" s="4" t="inlineStr">
         <is>
           <t>备赛</t>
         </is>
       </c>
-      <c r="T29" s="4" t="inlineStr">
+      <c r="U29" s="4" t="inlineStr">
         <is>
           <t>请假</t>
         </is>
       </c>
-      <c r="U29" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="W29" s="4" t="inlineStr">
+      <c r="V29" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="X29" s="4" t="inlineStr">
         <is>
           <t>其他情况</t>
         </is>
       </c>
-      <c r="Y29" s="0" t="inlineStr">
-        <is>
-          <t>考勤正常</t>
-        </is>
-      </c>
-      <c r="Z29" s="4" t="inlineStr">
+      <c r="Z29" s="0" t="inlineStr">
+        <is>
+          <t>考勤正常</t>
+        </is>
+      </c>
+      <c r="AA29" s="4" t="inlineStr">
         <is>
           <t>做核酸</t>
         </is>
       </c>
-      <c r="AE29" s="5" t="n"/>
+      <c r="AF29" s="5" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n"/>
@@ -3111,7 +3256,7 @@
           <t>名单</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>20220628周二-第3节课</t>
         </is>
@@ -3190,7 +3335,7 @@
           <t>贾靖程</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3229,7 +3374,7 @@
           <t>吴俊岳</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3267,7 +3412,7 @@
           <t>王浩羽</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3305,7 +3450,7 @@
           <t>吕梦丽</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3343,7 +3488,7 @@
           <t>牛皓冬</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3380,7 +3525,7 @@
           <t>张阔</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3418,7 +3563,7 @@
           <t>孙佳奇</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3458,7 +3603,7 @@
           <t>郑佳睦</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3533,7 +3678,7 @@
           <t>付一鸣</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3571,7 +3716,7 @@
           <t>李蓉轩</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3610,7 +3755,7 @@
           <t>陈观绅</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3648,7 +3793,7 @@
           <t>赵鑫博</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3685,7 +3830,7 @@
           <t>张子豪</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3722,7 +3867,7 @@
           <t>叶平</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3759,7 +3904,7 @@
           <t>陈龙</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3791,7 +3936,7 @@
           <t>钱炳东</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3823,7 +3968,7 @@
           <t>黄文龙</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3855,7 +4000,7 @@
           <t>田亮</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3887,7 +4032,7 @@
           <t>林俊如</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3919,7 +4064,7 @@
           <t>付鹏洲</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3951,7 +4096,7 @@
           <t>朱震霆</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -3983,7 +4128,7 @@
           <t>谢泽和</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -4015,7 +4160,7 @@
           <t>刘燕玲</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -4047,7 +4192,7 @@
           <t>苏丽莹</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -4079,7 +4224,7 @@
           <t>苏樟林</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
@@ -4111,7 +4256,7 @@
           <t>吴晓涛</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="0" t="inlineStr">
         <is>
           <t>考勤正常</t>
         </is>
